--- a/db/actors_seeds.xlsx
+++ b/db/actors_seeds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -26,31 +26,424 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>schoolclass</t>
   </si>
   <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Hostettler</t>
+  </si>
+  <si>
+    <t>3r</t>
+  </si>
+  <si>
+    <t>Ambra</t>
+  </si>
+  <si>
+    <t>Coluccia</t>
+  </si>
+  <si>
+    <t>2r</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Joss</t>
+  </si>
+  <si>
+    <t>5r</t>
+  </si>
+  <si>
+    <t>Dietrich</t>
+  </si>
+  <si>
+    <t>1r</t>
+  </si>
+  <si>
+    <t>Anja</t>
+  </si>
+  <si>
+    <t>Keusen</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Gerber</t>
+  </si>
+  <si>
+    <t>4r</t>
+  </si>
+  <si>
+    <t>Céline</t>
+  </si>
+  <si>
+    <t>Haldimann</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Bachmann</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Riem</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Blatter</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>Wälchli</t>
+  </si>
+  <si>
+    <t>Flurina</t>
+  </si>
+  <si>
+    <t>Bolliger</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Jannic</t>
+  </si>
+  <si>
+    <t>Herren</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Glaus</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Katja</t>
+  </si>
+  <si>
+    <t>Reusser</t>
+  </si>
+  <si>
+    <t>Lachat</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Schlepper</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Reinhard</t>
+  </si>
+  <si>
+    <t>Kurath</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>Minichiello</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Buchicchio</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Lehmann</t>
+  </si>
+  <si>
+    <t>Traffelet</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Jüni</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Fallon</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>Bangeter</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Gottier</t>
+  </si>
+  <si>
+    <t>Sheryl</t>
+  </si>
+  <si>
+    <t>Shkurta</t>
+  </si>
+  <si>
+    <t>Anici</t>
+  </si>
+  <si>
+    <t>Simea</t>
+  </si>
+  <si>
+    <t>Wyss</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Reber</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Obrist</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Schären</t>
+  </si>
+  <si>
     <t>Sven</t>
   </si>
   <si>
     <t>Stucki</t>
   </si>
   <si>
-    <t>3a</t>
-  </si>
-  <si>
-    <t>Leandro</t>
-  </si>
-  <si>
-    <t>Minichiello</t>
-  </si>
-  <si>
-    <t>verletzt</t>
-  </si>
-  <si>
-    <t>3c</t>
+    <t>Tamara</t>
+  </si>
+  <si>
+    <t>Sigrist</t>
+  </si>
+  <si>
+    <t>Tanja</t>
+  </si>
+  <si>
+    <t>Ramseyer</t>
+  </si>
+  <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>Bärtschi</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Möri</t>
+  </si>
+  <si>
+    <t>Tirza</t>
+  </si>
+  <si>
+    <t>Finsterwalder</t>
+  </si>
+  <si>
+    <t>Yannick</t>
+  </si>
+  <si>
+    <t>Walther</t>
+  </si>
+  <si>
+    <t>Yannik</t>
+  </si>
+  <si>
+    <t>Zora</t>
+  </si>
+  <si>
+    <t>Stalder</t>
+  </si>
+  <si>
+    <t>Alois</t>
+  </si>
+  <si>
+    <t>Streit</t>
+  </si>
+  <si>
+    <t>Anna-Lena</t>
+  </si>
+  <si>
+    <t>Scheidegger</t>
+  </si>
+  <si>
+    <t>Celina</t>
+  </si>
+  <si>
+    <t>Hertenstein</t>
+  </si>
+  <si>
+    <t>Mondigadon</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Claris</t>
+  </si>
+  <si>
+    <t>Inniger</t>
+  </si>
+  <si>
+    <t>Danja</t>
+  </si>
+  <si>
+    <t>Ritschard</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Fuchser</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Maurer</t>
+  </si>
+  <si>
+    <t>Florin</t>
+  </si>
+  <si>
+    <t>Gioia</t>
+  </si>
+  <si>
+    <t>Janine</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Brönnimann</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Althaus</t>
+  </si>
+  <si>
+    <t>Klopfstein</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Hofer</t>
+  </si>
+  <si>
+    <t>von Gunten</t>
+  </si>
+  <si>
+    <t>Kormann</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Wenger</t>
+  </si>
+  <si>
+    <t>Krebs</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Aebersold</t>
+  </si>
+  <si>
+    <t>Nadja</t>
+  </si>
+  <si>
+    <t>Schädeli</t>
+  </si>
+  <si>
+    <t>Blattner</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Hosner</t>
+  </si>
+  <si>
+    <t>Bergmann</t>
+  </si>
+  <si>
+    <t>Philippe</t>
   </si>
   <si>
     <t>Salome</t>
@@ -59,13 +452,46 @@
     <t>Vogel</t>
   </si>
   <si>
-    <t>5r</t>
-  </si>
-  <si>
-    <t>Simea</t>
-  </si>
-  <si>
-    <t>Wyss</t>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Selina</t>
+  </si>
+  <si>
+    <t>Kunz</t>
+  </si>
+  <si>
+    <t>Shanon</t>
+  </si>
+  <si>
+    <t>Anneler</t>
+  </si>
+  <si>
+    <t>Sina</t>
+  </si>
+  <si>
+    <t>Stefanie</t>
+  </si>
+  <si>
+    <t>Kobel</t>
+  </si>
+  <si>
+    <t>Swenja</t>
+  </si>
+  <si>
+    <t>Zingg</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Elsigan</t>
+  </si>
+  <si>
+    <t>Verena</t>
+  </si>
+  <si>
+    <t>Stiefel</t>
   </si>
 </sst>
 </file>
@@ -141,12 +567,16 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -167,10 +597,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A41" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F54" activeCellId="0" pane="topLeft" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -192,67 +622,1321 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="24">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="26">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="27">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="28">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="30">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="31">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="32">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="33">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="35">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="42">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="46">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="47">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="48">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="49">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="50">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="51">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="52">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="53">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="55">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="56">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="57">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="58">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="60">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="61">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="62">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="63">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="64">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="65">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="67">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="68">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="69">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="70">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="71">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="72">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="73">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="74">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="75">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="76">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="77">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="78">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="79">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="80">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="81">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="83">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="84">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="85">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="86">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="87">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="88">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="90">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="91">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="92">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="93">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="94">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="95">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
